--- a/positive_yearly_earnings_per_share_2013_df.xlsx
+++ b/positive_yearly_earnings_per_share_2013_df.xlsx
@@ -1240,12 +1240,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1275,11 +1281,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,7 +1600,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5.36</v>
       </c>
     </row>
@@ -1600,7 +1608,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>40.03</v>
       </c>
     </row>
@@ -1608,7 +1616,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.58</v>
       </c>
     </row>
@@ -1616,7 +1624,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.88</v>
       </c>
     </row>
@@ -1624,7 +1632,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.64</v>
       </c>
     </row>
@@ -1632,7 +1640,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.58</v>
       </c>
     </row>
@@ -1640,7 +1648,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2.19</v>
       </c>
     </row>
@@ -1648,7 +1656,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2.03</v>
       </c>
     </row>
@@ -1656,7 +1664,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10.09</v>
       </c>
     </row>
@@ -1664,7 +1672,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.09</v>
       </c>
     </row>
@@ -1672,7 +1680,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1.19</v>
       </c>
     </row>
@@ -1680,7 +1688,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3.04</v>
       </c>
     </row>
@@ -1688,7 +1696,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6.8</v>
       </c>
     </row>
@@ -1696,7 +1704,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>6.16</v>
       </c>
     </row>
@@ -1704,7 +1712,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1.4</v>
       </c>
     </row>
@@ -1712,7 +1720,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>6.38</v>
       </c>
     </row>
@@ -1720,7 +1728,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>2.08</v>
       </c>
     </row>
@@ -1728,7 +1736,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1.65</v>
       </c>
     </row>
@@ -1736,7 +1744,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>4.93</v>
       </c>
     </row>
@@ -1744,7 +1752,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>7.26</v>
       </c>
     </row>
@@ -1752,7 +1760,7 @@
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>4.87</v>
       </c>
     </row>
@@ -1760,7 +1768,7 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1.29</v>
       </c>
     </row>
@@ -1768,7 +1776,7 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -1776,7 +1784,7 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>2.12</v>
       </c>
     </row>
@@ -1784,7 +1792,7 @@
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>6.79</v>
       </c>
     </row>
@@ -1792,7 +1800,7 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>6.75</v>
       </c>
     </row>
@@ -1800,7 +1808,7 @@
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>6.56</v>
       </c>
     </row>
@@ -1808,7 +1816,7 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>1.4</v>
       </c>
     </row>
@@ -1816,7 +1824,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0.6</v>
       </c>
     </row>
@@ -1824,7 +1832,7 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>3.09</v>
       </c>
     </row>
@@ -1832,7 +1840,7 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>8.34</v>
       </c>
     </row>
@@ -1840,7 +1848,7 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>3.57</v>
       </c>
     </row>
@@ -1848,7 +1856,7 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>5.53</v>
       </c>
     </row>
@@ -1856,7 +1864,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -1864,7 +1872,7 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>4.74</v>
       </c>
     </row>
@@ -1872,7 +1880,7 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1880,7 +1888,7 @@
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0.96</v>
       </c>
     </row>
@@ -1888,7 +1896,7 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -1896,7 +1904,7 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2.19</v>
       </c>
     </row>
@@ -1904,7 +1912,7 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>2.08</v>
       </c>
     </row>
@@ -1912,7 +1920,7 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>4.91</v>
       </c>
     </row>
@@ -1920,7 +1928,7 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>2.97</v>
       </c>
     </row>
@@ -1928,7 +1936,7 @@
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>28.28</v>
       </c>
     </row>
@@ -1936,7 +1944,7 @@
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>6.03</v>
       </c>
     </row>
@@ -1944,7 +1952,7 @@
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -1952,7 +1960,7 @@
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>3.7</v>
       </c>
     </row>
@@ -1960,7 +1968,7 @@
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>4.62</v>
       </c>
     </row>
@@ -1968,7 +1976,7 @@
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>2.22</v>
       </c>
     </row>
@@ -1976,7 +1984,7 @@
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>8.539999999999999</v>
       </c>
     </row>
@@ -1984,7 +1992,7 @@
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>6.63</v>
       </c>
     </row>
@@ -1992,7 +2000,7 @@
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>2.47</v>
       </c>
     </row>
@@ -2000,7 +2008,7 @@
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>7.86</v>
       </c>
     </row>
@@ -2008,7 +2016,7 @@
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>1.75</v>
       </c>
     </row>
@@ -2016,7 +2024,7 @@
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>2.79</v>
       </c>
     </row>
@@ -2024,7 +2032,7 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>1.56</v>
       </c>
     </row>
@@ -2032,7 +2040,7 @@
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>2.73</v>
       </c>
     </row>
@@ -2040,7 +2048,7 @@
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>4.87</v>
       </c>
     </row>
@@ -2048,7 +2056,7 @@
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>4.35</v>
       </c>
     </row>
@@ -2056,7 +2064,7 @@
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1.88</v>
       </c>
     </row>
@@ -2064,7 +2072,7 @@
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>0.98</v>
       </c>
     </row>
@@ -2072,7 +2080,7 @@
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>5.87</v>
       </c>
     </row>
@@ -2080,7 +2088,7 @@
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>11.02</v>
       </c>
     </row>
@@ -2088,7 +2096,7 @@
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>0.96</v>
       </c>
     </row>
@@ -2096,7 +2104,7 @@
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>0.26</v>
       </c>
     </row>
@@ -2104,7 +2112,7 @@
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>1.39</v>
       </c>
     </row>
@@ -2112,7 +2120,7 @@
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -2120,7 +2128,7 @@
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>1.16</v>
       </c>
     </row>
@@ -2128,7 +2136,7 @@
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>24.87</v>
       </c>
     </row>
@@ -2136,7 +2144,7 @@
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>2.85</v>
       </c>
     </row>
@@ -2144,7 +2152,7 @@
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>0.73</v>
       </c>
     </row>
@@ -2152,7 +2160,7 @@
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>2.65</v>
       </c>
     </row>
@@ -2160,7 +2168,7 @@
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>5.28</v>
       </c>
     </row>
@@ -2168,7 +2176,7 @@
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>3.16</v>
       </c>
     </row>
@@ -2176,7 +2184,7 @@
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>2.41</v>
       </c>
     </row>
@@ -2184,7 +2192,7 @@
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>4.37</v>
       </c>
     </row>
@@ -2192,7 +2200,7 @@
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>2.92</v>
       </c>
     </row>
@@ -2200,7 +2208,7 @@
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>2.94</v>
       </c>
     </row>
@@ -2208,7 +2216,7 @@
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>10.58</v>
       </c>
     </row>
@@ -2216,7 +2224,7 @@
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>7.93</v>
       </c>
     </row>
@@ -2224,7 +2232,7 @@
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1.71</v>
       </c>
     </row>
@@ -2232,7 +2240,7 @@
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>2.98</v>
       </c>
     </row>
@@ -2240,7 +2248,7 @@
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>0.73</v>
       </c>
     </row>
@@ -2248,7 +2256,7 @@
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>7.05</v>
       </c>
     </row>
@@ -2256,7 +2264,7 @@
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>0.67</v>
       </c>
     </row>
@@ -2264,7 +2272,7 @@
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>4.63</v>
       </c>
     </row>
@@ -2272,7 +2280,7 @@
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>6.09</v>
       </c>
     </row>
@@ -2280,7 +2288,7 @@
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>4.68</v>
       </c>
     </row>
@@ -2288,7 +2296,7 @@
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>1.46</v>
       </c>
     </row>
@@ -2296,7 +2304,7 @@
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>1.87</v>
       </c>
     </row>
@@ -2304,7 +2312,7 @@
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>2.53</v>
       </c>
     </row>
@@ -2312,7 +2320,7 @@
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>4.07</v>
       </c>
     </row>
@@ -2320,7 +2328,7 @@
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>1.82</v>
       </c>
     </row>
@@ -2328,7 +2336,7 @@
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>3.77</v>
       </c>
     </row>
@@ -2336,7 +2344,7 @@
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>11.18</v>
       </c>
     </row>
@@ -2344,7 +2352,7 @@
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>2.39</v>
       </c>
     </row>
@@ -2352,7 +2360,7 @@
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>2.93</v>
       </c>
     </row>
@@ -2360,7 +2368,7 @@
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>12.41</v>
       </c>
     </row>
@@ -2368,7 +2376,7 @@
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>5.22</v>
       </c>
     </row>
@@ -2376,7 +2384,7 @@
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>9.18</v>
       </c>
     </row>
@@ -2384,7 +2392,7 @@
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>4.97</v>
       </c>
     </row>
@@ -2392,7 +2400,7 @@
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>2.87</v>
       </c>
     </row>
@@ -2400,7 +2408,7 @@
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>5.58</v>
       </c>
     </row>
@@ -2408,7 +2416,7 @@
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>1.44</v>
       </c>
     </row>
@@ -2416,7 +2424,7 @@
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>3.87</v>
       </c>
     </row>
@@ -2424,7 +2432,7 @@
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>3.42</v>
       </c>
     </row>
@@ -2432,7 +2440,7 @@
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -2440,7 +2448,7 @@
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>3.9</v>
       </c>
     </row>
@@ -2448,7 +2456,7 @@
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>2.12</v>
       </c>
     </row>
@@ -2456,7 +2464,7 @@
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>2.7</v>
       </c>
     </row>
@@ -2464,7 +2472,7 @@
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>6.61</v>
       </c>
     </row>
@@ -2472,7 +2480,7 @@
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>5.86</v>
       </c>
     </row>
@@ -2480,7 +2488,7 @@
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>3.08</v>
       </c>
     </row>
@@ -2488,7 +2496,7 @@
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>3.19</v>
       </c>
     </row>
@@ -2496,7 +2504,7 @@
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>3.77</v>
       </c>
     </row>
@@ -2504,7 +2512,7 @@
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>3.02</v>
       </c>
     </row>
@@ -2512,7 +2520,7 @@
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>0.32</v>
       </c>
     </row>
@@ -2520,7 +2528,7 @@
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>2.2</v>
       </c>
     </row>
@@ -2528,7 +2536,7 @@
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>3.23</v>
       </c>
     </row>
@@ -2536,7 +2544,7 @@
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>3.62</v>
       </c>
     </row>
@@ -2544,7 +2552,7 @@
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>2.9</v>
       </c>
     </row>
@@ -2552,7 +2560,7 @@
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>2.81</v>
       </c>
     </row>
@@ -2560,7 +2568,7 @@
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>2.63</v>
       </c>
     </row>
@@ -2568,7 +2576,7 @@
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>7.57</v>
       </c>
     </row>
@@ -2576,7 +2584,7 @@
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -2584,7 +2592,7 @@
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>8.130000000000001</v>
       </c>
     </row>
@@ -2592,7 +2600,7 @@
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
         <v>1.92</v>
       </c>
     </row>
@@ -2600,7 +2608,7 @@
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>5.155</v>
       </c>
     </row>
@@ -2608,7 +2616,7 @@
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
         <v>2.59</v>
       </c>
     </row>
@@ -2616,7 +2624,7 @@
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
         <v>2.49</v>
       </c>
     </row>
@@ -2624,7 +2632,7 @@
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>4.06</v>
       </c>
     </row>
@@ -2632,7 +2640,7 @@
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -2640,7 +2648,7 @@
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -2648,7 +2656,7 @@
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>3.99</v>
       </c>
     </row>
@@ -2656,7 +2664,7 @@
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
         <v>3.51</v>
       </c>
     </row>
@@ -2664,7 +2672,7 @@
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
         <v>0.6</v>
       </c>
     </row>
@@ -2672,7 +2680,7 @@
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>1.69</v>
       </c>
     </row>
@@ -2680,7 +2688,7 @@
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
         <v>1.73</v>
       </c>
     </row>
@@ -2688,7 +2696,7 @@
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
         <v>1.54</v>
       </c>
     </row>
@@ -2696,7 +2704,7 @@
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
         <v>1.82</v>
       </c>
     </row>
@@ -2704,7 +2712,7 @@
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
         <v>1.51</v>
       </c>
     </row>
@@ -2712,7 +2720,7 @@
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>0.62</v>
       </c>
     </row>
@@ -2720,7 +2728,7 @@
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>1.39</v>
       </c>
     </row>
@@ -2728,7 +2736,7 @@
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>2.65</v>
       </c>
     </row>
@@ -2736,7 +2744,7 @@
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
         <v>4.95</v>
       </c>
     </row>
@@ -2744,7 +2752,7 @@
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -2752,7 +2760,7 @@
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
         <v>3.53</v>
       </c>
     </row>
@@ -2760,7 +2768,7 @@
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
         <v>1.7</v>
       </c>
     </row>
@@ -2768,7 +2776,7 @@
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>2.47</v>
       </c>
     </row>
@@ -2776,7 +2784,7 @@
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
         <v>2.62</v>
       </c>
     </row>
@@ -2784,7 +2792,7 @@
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>1.24</v>
       </c>
     </row>
@@ -2792,7 +2800,7 @@
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>4.11</v>
       </c>
     </row>
@@ -2800,7 +2808,7 @@
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>3.43</v>
       </c>
     </row>
@@ -2808,7 +2816,7 @@
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>2.16</v>
       </c>
     </row>
@@ -2816,7 +2824,7 @@
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
         <v>2.47</v>
       </c>
     </row>
@@ -2824,7 +2832,7 @@
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>3.77</v>
       </c>
     </row>
@@ -2832,7 +2840,7 @@
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>0.11</v>
       </c>
     </row>
@@ -2840,7 +2848,7 @@
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>6.72</v>
       </c>
     </row>
@@ -2848,7 +2856,7 @@
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
         <v>2.01</v>
       </c>
     </row>
@@ -2856,7 +2864,7 @@
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>2.86</v>
       </c>
     </row>
@@ -2864,7 +2872,7 @@
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
         <v>1.35</v>
       </c>
     </row>
@@ -2872,7 +2880,7 @@
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>2.71</v>
       </c>
     </row>
@@ -2880,7 +2888,7 @@
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>4.43</v>
       </c>
     </row>
@@ -2888,7 +2896,7 @@
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -2896,7 +2904,7 @@
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>2.35</v>
       </c>
     </row>
@@ -2904,7 +2912,7 @@
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>3.13</v>
       </c>
     </row>
@@ -2912,7 +2920,7 @@
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>2.44</v>
       </c>
     </row>
@@ -2920,7 +2928,7 @@
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>11.31</v>
       </c>
     </row>
@@ -2928,7 +2936,7 @@
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -2936,7 +2944,7 @@
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>2.2</v>
       </c>
     </row>
@@ -2944,7 +2952,7 @@
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>0.73</v>
       </c>
     </row>
@@ -2952,7 +2960,7 @@
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>3.31</v>
       </c>
     </row>
@@ -2960,7 +2968,7 @@
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -2968,7 +2976,7 @@
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
         <v>0.28</v>
       </c>
     </row>
@@ -2976,7 +2984,7 @@
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
         <v>2.13</v>
       </c>
     </row>
@@ -2984,7 +2992,7 @@
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
         <v>3.03</v>
       </c>
     </row>
@@ -2992,7 +3000,7 @@
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
         <v>15.01</v>
       </c>
     </row>
@@ -3000,7 +3008,7 @@
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
         <v>0.37</v>
       </c>
     </row>
@@ -3008,7 +3016,7 @@
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>3.3</v>
       </c>
     </row>
@@ -3016,7 +3024,7 @@
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
         <v>4.99</v>
       </c>
     </row>
@@ -3024,7 +3032,7 @@
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>6.89</v>
       </c>
     </row>
@@ -3032,7 +3040,7 @@
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
         <v>2.64</v>
       </c>
     </row>
@@ -3040,7 +3048,7 @@
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
         <v>1.59</v>
       </c>
     </row>
@@ -3048,7 +3056,7 @@
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
         <v>1.99</v>
       </c>
     </row>
@@ -3056,7 +3064,7 @@
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -3064,7 +3072,7 @@
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
         <v>5.02</v>
       </c>
     </row>
@@ -3072,7 +3080,7 @@
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>0.16</v>
       </c>
     </row>
@@ -3080,7 +3088,7 @@
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
         <v>7.81</v>
       </c>
     </row>
@@ -3088,7 +3096,7 @@
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
         <v>15.06</v>
       </c>
     </row>
@@ -3096,7 +3104,7 @@
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="2">
         <v>3.53</v>
       </c>
     </row>
@@ -3104,7 +3112,7 @@
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
         <v>4.32</v>
       </c>
     </row>
@@ -3112,7 +3120,7 @@
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3120,7 +3128,7 @@
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
         <v>1.94</v>
       </c>
     </row>
@@ -3128,7 +3136,7 @@
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
         <v>2.89</v>
       </c>
     </row>
@@ -3136,7 +3144,7 @@
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>3.15</v>
       </c>
     </row>
@@ -3144,7 +3152,7 @@
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
         <v>0.62</v>
       </c>
     </row>
@@ -3152,7 +3160,7 @@
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
         <v>0.51</v>
       </c>
     </row>
@@ -3160,7 +3168,7 @@
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
         <v>17.12</v>
       </c>
     </row>
@@ -3168,7 +3176,7 @@
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
         <v>3.76</v>
       </c>
     </row>
@@ -3176,7 +3184,7 @@
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
         <v>2.1</v>
       </c>
     </row>
@@ -3184,7 +3192,7 @@
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
         <v>2.92</v>
       </c>
     </row>
@@ -3192,7 +3200,7 @@
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
         <v>3.27</v>
       </c>
     </row>
@@ -3200,7 +3208,7 @@
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -3208,7 +3216,7 @@
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>4.39</v>
       </c>
     </row>
@@ -3216,7 +3224,7 @@
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
         <v>3.62</v>
       </c>
     </row>
@@ -3224,7 +3232,7 @@
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="2">
         <v>4.98</v>
       </c>
     </row>
@@ -3232,7 +3240,7 @@
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="2">
         <v>0.43</v>
       </c>
     </row>
@@ -3240,7 +3248,7 @@
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
         <v>3.27</v>
       </c>
     </row>
@@ -3248,7 +3256,7 @@
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
         <v>5.58</v>
       </c>
     </row>
@@ -3256,7 +3264,7 @@
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
         <v>1.9</v>
       </c>
     </row>
@@ -3264,7 +3272,7 @@
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="2">
         <v>1.94</v>
       </c>
     </row>
@@ -3272,7 +3280,7 @@
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="2">
         <v>2.02</v>
       </c>
     </row>
@@ -3280,7 +3288,7 @@
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -3288,7 +3296,7 @@
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="2">
         <v>4.19</v>
       </c>
     </row>
@@ -3296,7 +3304,7 @@
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="2">
         <v>3.19</v>
       </c>
     </row>
@@ -3304,7 +3312,7 @@
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="2">
         <v>2.6</v>
       </c>
     </row>
@@ -3312,7 +3320,7 @@
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="2">
         <v>1.36</v>
       </c>
     </row>
@@ -3320,7 +3328,7 @@
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="2">
         <v>2.48</v>
       </c>
     </row>
@@ -3328,7 +3336,7 @@
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
         <v>6.36</v>
       </c>
     </row>
@@ -3336,7 +3344,7 @@
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
         <v>8.699999999999999</v>
       </c>
     </row>
@@ -3344,7 +3352,7 @@
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="2">
         <v>1.72</v>
       </c>
     </row>
@@ -3352,7 +3360,7 @@
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="2">
         <v>4.33</v>
       </c>
     </row>
@@ -3360,7 +3368,7 @@
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="2">
         <v>9.289999999999999</v>
       </c>
     </row>
@@ -3368,7 +3376,7 @@
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="2">
         <v>3.23</v>
       </c>
     </row>
@@ -3376,7 +3384,7 @@
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="2">
         <v>1.69</v>
       </c>
     </row>
@@ -3384,7 +3392,7 @@
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="2">
         <v>0.67</v>
       </c>
     </row>
@@ -3392,7 +3400,7 @@
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
         <v>1.07</v>
       </c>
     </row>
@@ -3400,7 +3408,7 @@
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="2">
         <v>1.06</v>
       </c>
     </row>
@@ -3408,7 +3416,7 @@
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="2">
         <v>6.8</v>
       </c>
     </row>
@@ -3416,7 +3424,7 @@
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="2">
         <v>3.29</v>
       </c>
     </row>
@@ -3424,7 +3432,7 @@
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="2">
         <v>2.57</v>
       </c>
     </row>
@@ -3432,7 +3440,7 @@
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="2">
         <v>2.27</v>
       </c>
     </row>
@@ -3440,7 +3448,7 @@
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -3448,7 +3456,7 @@
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="2">
         <v>2.05</v>
       </c>
     </row>
@@ -3456,7 +3464,7 @@
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
         <v>0.76</v>
       </c>
     </row>
@@ -3464,7 +3472,7 @@
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -3472,7 +3480,7 @@
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="2">
         <v>5.59</v>
       </c>
     </row>
@@ -3480,7 +3488,7 @@
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="2">
         <v>0.65</v>
       </c>
     </row>
@@ -3488,7 +3496,7 @@
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="2">
         <v>5.71</v>
       </c>
     </row>
@@ -3496,7 +3504,7 @@
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="2">
         <v>3.67</v>
       </c>
     </row>
@@ -3504,7 +3512,7 @@
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>2.21</v>
       </c>
     </row>
@@ -3512,7 +3520,7 @@
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="2">
         <v>2.94</v>
       </c>
     </row>
@@ -3520,7 +3528,7 @@
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="2">
         <v>4.86</v>
       </c>
     </row>
@@ -3528,7 +3536,7 @@
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -3536,7 +3544,7 @@
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>2.94</v>
       </c>
     </row>
@@ -3544,7 +3552,7 @@
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="2">
         <v>2.62</v>
       </c>
     </row>
@@ -3552,7 +3560,7 @@
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="2">
         <v>2.47</v>
       </c>
     </row>
@@ -3560,7 +3568,7 @@
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
         <v>6.83</v>
       </c>
     </row>
@@ -3568,7 +3576,7 @@
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="2">
         <v>2.26</v>
       </c>
     </row>
@@ -3576,7 +3584,7 @@
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="2">
         <v>4.65</v>
       </c>
     </row>
@@ -3584,7 +3592,7 @@
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="2">
         <v>4.44</v>
       </c>
     </row>
@@ -3592,7 +3600,7 @@
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="2">
         <v>6.69</v>
       </c>
     </row>
@@ -3600,7 +3608,7 @@
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="2">
         <v>1.49</v>
       </c>
     </row>
@@ -3608,7 +3616,7 @@
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="2">
         <v>2.49</v>
       </c>
     </row>
@@ -3616,7 +3624,7 @@
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -3624,7 +3632,7 @@
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="2">
         <v>8.26</v>
       </c>
     </row>
@@ -3632,7 +3640,7 @@
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="2">
         <v>10.22</v>
       </c>
     </row>
@@ -3640,7 +3648,7 @@
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="2">
         <v>1.16</v>
       </c>
     </row>
@@ -3648,7 +3656,7 @@
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="2">
         <v>5.98</v>
       </c>
     </row>
@@ -3656,7 +3664,7 @@
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="2">
         <v>2.72</v>
       </c>
     </row>
@@ -3664,7 +3672,7 @@
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="2">
         <v>2.3</v>
       </c>
     </row>
@@ -3672,7 +3680,7 @@
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="2">
         <v>4.5</v>
       </c>
     </row>
@@ -3680,7 +3688,7 @@
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
         <v>1.93</v>
       </c>
     </row>
@@ -3688,7 +3696,7 @@
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -3696,7 +3704,7 @@
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
         <v>1.97</v>
       </c>
     </row>
@@ -3704,7 +3712,7 @@
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
         <v>5.46</v>
       </c>
     </row>
@@ -3712,7 +3720,7 @@
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
         <v>6.1</v>
       </c>
     </row>
@@ -3720,7 +3728,7 @@
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="2">
         <v>1.4</v>
       </c>
     </row>
@@ -3728,7 +3736,7 @@
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -3736,7 +3744,7 @@
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="2">
         <v>1.52</v>
       </c>
     </row>
@@ -3744,7 +3752,7 @@
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="2">
         <v>0.91</v>
       </c>
     </row>
@@ -3752,7 +3760,7 @@
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="2">
         <v>1.64</v>
       </c>
     </row>
@@ -3760,7 +3768,7 @@
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="2">
         <v>1.06</v>
       </c>
     </row>
@@ -3768,7 +3776,7 @@
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="2">
         <v>1.29</v>
       </c>
     </row>
@@ -3776,7 +3784,7 @@
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="2">
         <v>3.73</v>
       </c>
     </row>
@@ -3784,7 +3792,7 @@
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="2">
         <v>6.14</v>
       </c>
     </row>
@@ -3792,7 +3800,7 @@
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
         <v>7.33</v>
       </c>
     </row>
@@ -3800,7 +3808,7 @@
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="2">
         <v>1.56</v>
       </c>
     </row>
@@ -3808,7 +3816,7 @@
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="2">
         <v>0.74</v>
       </c>
     </row>
@@ -3816,7 +3824,7 @@
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -3824,7 +3832,7 @@
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="2">
         <v>3.31</v>
       </c>
     </row>
@@ -3832,7 +3840,7 @@
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="2">
         <v>1.83</v>
       </c>
     </row>
@@ -3840,7 +3848,7 @@
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="2">
         <v>37.17</v>
       </c>
     </row>
@@ -3848,7 +3856,7 @@
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="2">
         <v>2.04</v>
       </c>
     </row>
@@ -3856,7 +3864,7 @@
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="2">
         <v>2.46</v>
       </c>
     </row>
@@ -3864,7 +3872,7 @@
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="2">
         <v>4.37</v>
       </c>
     </row>
@@ -3872,7 +3880,7 @@
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="2">
         <v>3.23</v>
       </c>
     </row>
@@ -3880,7 +3888,7 @@
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="2">
         <v>2.99</v>
       </c>
     </row>
@@ -3888,7 +3896,7 @@
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="2">
         <v>1.95</v>
       </c>
     </row>
@@ -3896,7 +3904,7 @@
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="2">
         <v>6.36</v>
       </c>
     </row>
@@ -3904,7 +3912,7 @@
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="2">
         <v>6.79</v>
       </c>
     </row>
@@ -3912,7 +3920,7 @@
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="2">
         <v>1.49</v>
       </c>
     </row>
@@ -3920,7 +3928,7 @@
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="2">
         <v>5.26</v>
       </c>
     </row>
@@ -3928,7 +3936,7 @@
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="2">
         <v>7.48</v>
       </c>
     </row>
@@ -3936,7 +3944,7 @@
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="2">
         <v>2.67</v>
       </c>
     </row>
@@ -3944,7 +3952,7 @@
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="2">
         <v>3.69</v>
       </c>
     </row>
@@ -3952,7 +3960,7 @@
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="2">
         <v>22.53</v>
       </c>
     </row>
@@ -3960,7 +3968,7 @@
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="2">
         <v>1.85</v>
       </c>
     </row>
@@ -3968,7 +3976,7 @@
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="2">
         <v>6.07</v>
       </c>
     </row>
@@ -3976,7 +3984,7 @@
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="2">
         <v>5.98</v>
       </c>
     </row>
@@ -3984,7 +3992,7 @@
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="2">
         <v>1.87</v>
       </c>
     </row>
@@ -3992,7 +4000,7 @@
       <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="2">
         <v>5.94</v>
       </c>
     </row>
@@ -4000,7 +4008,7 @@
       <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="2">
         <v>3.99</v>
       </c>
     </row>
@@ -4008,7 +4016,7 @@
       <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="2">
         <v>4.57</v>
       </c>
     </row>
@@ -4016,7 +4024,7 @@
       <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
         <v>2.16</v>
       </c>
     </row>
@@ -4024,7 +4032,7 @@
       <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
         <v>4.33</v>
       </c>
     </row>
@@ -4032,7 +4040,7 @@
       <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
         <v>1.85</v>
       </c>
     </row>
@@ -4040,7 +4048,7 @@
       <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="2">
         <v>0.78</v>
       </c>
     </row>
@@ -4048,7 +4056,7 @@
       <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="2">
         <v>8.210000000000001</v>
       </c>
     </row>
@@ -4056,7 +4064,7 @@
       <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="2">
         <v>5.43</v>
       </c>
     </row>
@@ -4064,7 +4072,7 @@
       <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="2">
         <v>5.43</v>
       </c>
     </row>
@@ -4072,7 +4080,7 @@
       <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="2">
         <v>3.59</v>
       </c>
     </row>
@@ -4080,7 +4088,7 @@
       <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -4088,7 +4096,7 @@
       <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="2">
         <v>1.63</v>
       </c>
     </row>
@@ -4096,7 +4104,7 @@
       <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -4104,7 +4112,7 @@
       <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="2">
         <v>3.4</v>
       </c>
     </row>
@@ -4112,7 +4120,7 @@
       <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="2">
         <v>0.78</v>
       </c>
     </row>
@@ -4120,7 +4128,7 @@
       <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="2">
         <v>1.55</v>
       </c>
     </row>
@@ -4128,7 +4136,7 @@
       <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="2">
         <v>0.64</v>
       </c>
     </row>
@@ -4136,7 +4144,7 @@
       <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="2">
         <v>7.41</v>
       </c>
     </row>
@@ -4144,7 +4152,7 @@
       <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="2">
         <v>4.37</v>
       </c>
     </row>
@@ -4152,7 +4160,7 @@
       <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="2">
         <v>5</v>
       </c>
     </row>
@@ -4160,7 +4168,7 @@
       <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="2">
         <v>0.39</v>
       </c>
     </row>
@@ -4168,7 +4176,7 @@
       <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="2">
         <v>3.43</v>
       </c>
     </row>
@@ -4176,7 +4184,7 @@
       <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="2">
         <v>1.88</v>
       </c>
     </row>
@@ -4184,7 +4192,7 @@
       <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="2">
         <v>4.24</v>
       </c>
     </row>
@@ -4192,7 +4200,7 @@
       <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="2">
         <v>5.01</v>
       </c>
     </row>
@@ -4200,7 +4208,7 @@
       <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="2">
         <v>3.62</v>
       </c>
     </row>
@@ -4208,7 +4216,7 @@
       <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="2">
         <v>4.1</v>
       </c>
     </row>
@@ -4216,7 +4224,7 @@
       <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="2">
         <v>2.43</v>
       </c>
     </row>
@@ -4224,7 +4232,7 @@
       <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="2">
         <v>4.71</v>
       </c>
     </row>
@@ -4232,7 +4240,7 @@
       <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="2">
         <v>4.97</v>
       </c>
     </row>
@@ -4240,7 +4248,7 @@
       <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="2">
         <v>3.16</v>
       </c>
     </row>
@@ -4248,7 +4256,7 @@
       <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="2">
         <v>1.48</v>
       </c>
     </row>
@@ -4256,7 +4264,7 @@
       <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="2">
         <v>2.01</v>
       </c>
     </row>
@@ -4264,7 +4272,7 @@
       <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -4272,7 +4280,7 @@
       <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="2">
         <v>1.09</v>
       </c>
     </row>
@@ -4280,7 +4288,7 @@
       <c r="A338" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="2">
         <v>1.68</v>
       </c>
     </row>
@@ -4288,7 +4296,7 @@
       <c r="A339" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="2">
         <v>3.39</v>
       </c>
     </row>
@@ -4296,7 +4304,7 @@
       <c r="A340" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="2">
         <v>3.1</v>
       </c>
     </row>
@@ -4304,7 +4312,7 @@
       <c r="A341" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="2">
         <v>2.31</v>
       </c>
     </row>
@@ -4312,7 +4320,7 @@
       <c r="A342" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="2">
         <v>3.05</v>
       </c>
     </row>
@@ -4320,7 +4328,7 @@
       <c r="A343" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="2">
         <v>1.7</v>
       </c>
     </row>
@@ -4328,7 +4336,7 @@
       <c r="A344" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="2">
         <v>4.57</v>
       </c>
     </row>
@@ -4336,7 +4344,7 @@
       <c r="A345" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="2">
         <v>3.28</v>
       </c>
     </row>
@@ -4344,7 +4352,7 @@
       <c r="A346" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="2">
         <v>2.6</v>
       </c>
     </row>
@@ -4352,7 +4360,7 @@
       <c r="A347" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="2">
         <v>5.76</v>
       </c>
     </row>
@@ -4360,7 +4368,7 @@
       <c r="A348" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="2">
         <v>3.53</v>
       </c>
     </row>
@@ -4368,7 +4376,7 @@
       <c r="A349" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="2">
         <v>1.44</v>
       </c>
     </row>
@@ -4376,7 +4384,7 @@
       <c r="A350" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="2">
         <v>9.84</v>
       </c>
     </row>
@@ -4384,7 +4392,7 @@
       <c r="A351" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="2">
         <v>2.35</v>
       </c>
     </row>
@@ -4392,7 +4400,7 @@
       <c r="A352" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
         <v>3.05</v>
       </c>
     </row>
@@ -4400,7 +4408,7 @@
       <c r="A353" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -4408,7 +4416,7 @@
       <c r="A354" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="2">
         <v>1.94</v>
       </c>
     </row>
@@ -4416,7 +4424,7 @@
       <c r="A355" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="2">
         <v>1.78</v>
       </c>
     </row>
@@ -4424,7 +4432,7 @@
       <c r="A356" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="2">
         <v>1.54</v>
       </c>
     </row>
@@ -4432,7 +4440,7 @@
       <c r="A357" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="2">
         <v>1.64</v>
       </c>
     </row>
@@ -4440,7 +4448,7 @@
       <c r="A358" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="2">
         <v>0.16</v>
       </c>
     </row>
@@ -4448,7 +4456,7 @@
       <c r="A359" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="2">
         <v>5.21</v>
       </c>
     </row>
@@ -4456,7 +4464,7 @@
       <c r="A360" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="2">
         <v>2.73</v>
       </c>
     </row>
@@ -4464,7 +4472,7 @@
       <c r="A361" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="2">
         <v>5.59</v>
       </c>
     </row>
@@ -4472,7 +4480,7 @@
       <c r="A362" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="2">
         <v>3.24</v>
       </c>
     </row>
@@ -4480,7 +4488,7 @@
       <c r="A363" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="2">
         <v>9.470000000000001</v>
       </c>
     </row>
@@ -4488,7 +4496,7 @@
       <c r="A364" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="2">
         <v>4.65</v>
       </c>
     </row>
@@ -4496,7 +4504,7 @@
       <c r="A365" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="2">
         <v>1.63</v>
       </c>
     </row>
@@ -4504,7 +4512,7 @@
       <c r="A366" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="2">
         <v>6.35</v>
       </c>
     </row>
@@ -4512,7 +4520,7 @@
       <c r="A367" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="2">
         <v>4.04</v>
       </c>
     </row>
@@ -4520,7 +4528,7 @@
       <c r="A368" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="2">
         <v>4.93</v>
       </c>
     </row>
@@ -4528,7 +4536,7 @@
       <c r="A369" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="2">
         <v>4.99</v>
       </c>
     </row>
@@ -4536,7 +4544,7 @@
       <c r="A370" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="2">
         <v>0.19</v>
       </c>
     </row>
@@ -4544,7 +4552,7 @@
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="2">
         <v>2.1</v>
       </c>
     </row>
@@ -4552,7 +4560,7 @@
       <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="2">
         <v>2.07</v>
       </c>
     </row>
@@ -4560,7 +4568,7 @@
       <c r="A373" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="2">
         <v>3.77</v>
       </c>
     </row>
@@ -4568,7 +4576,7 @@
       <c r="A374" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="2">
         <v>1.55</v>
       </c>
     </row>
@@ -4576,7 +4584,7 @@
       <c r="A375" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="2">
         <v>4.01</v>
       </c>
     </row>
@@ -4584,7 +4592,7 @@
       <c r="A376" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="2">
         <v>4.07</v>
       </c>
     </row>
@@ -4592,7 +4600,7 @@
       <c r="A377" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="2">
         <v>2.54</v>
       </c>
     </row>
@@ -4600,7 +4608,7 @@
       <c r="A378" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="2">
         <v>3.95</v>
       </c>
     </row>
@@ -4608,7 +4616,7 @@
       <c r="A379" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="2">
         <v>1.48</v>
       </c>
     </row>
@@ -4616,7 +4624,7 @@
       <c r="A380" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="2">
         <v>10.42</v>
       </c>
     </row>
@@ -4624,7 +4632,7 @@
       <c r="A381" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -4632,7 +4640,7 @@
       <c r="A382" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="2">
         <v>0.63</v>
       </c>
     </row>
@@ -4640,7 +4648,7 @@
       <c r="A383" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="2">
         <v>5.04</v>
       </c>
     </row>
@@ -4648,7 +4656,7 @@
       <c r="A384" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="2">
         <v>1.43</v>
       </c>
     </row>
@@ -4656,7 +4664,7 @@
       <c r="A385" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -4664,7 +4672,7 @@
       <c r="A386" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="2">
         <v>3.25</v>
       </c>
     </row>
@@ -4672,7 +4680,7 @@
       <c r="A387" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="2">
         <v>7.25</v>
       </c>
     </row>
@@ -4680,7 +4688,7 @@
       <c r="A388" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="2">
         <v>6.48</v>
       </c>
     </row>
@@ -4688,7 +4696,7 @@
       <c r="A389" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="2">
         <v>1.91</v>
       </c>
     </row>
@@ -4696,7 +4704,7 @@
       <c r="A390" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="2">
         <v>3.68</v>
       </c>
     </row>
@@ -4704,7 +4712,7 @@
       <c r="A391" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="2">
         <v>1.86</v>
       </c>
     </row>
@@ -4712,7 +4720,7 @@
       <c r="A392" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="2">
         <v>7.37</v>
       </c>
     </row>
@@ -4720,7 +4728,7 @@
       <c r="A393" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="2">
         <v>2.2</v>
       </c>
     </row>
@@ -4728,7 +4736,7 @@
       <c r="A394" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="2">
         <v>0.93</v>
       </c>
     </row>
@@ -4736,7 +4744,7 @@
       <c r="A395" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="2">
         <v>1.23</v>
       </c>
     </row>
@@ -4744,7 +4752,7 @@
       <c r="A396" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -4752,7 +4760,7 @@
       <c r="A397" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="2">
         <v>2.41</v>
       </c>
     </row>
@@ -4760,7 +4768,7 @@
       <c r="A398" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="2">
         <v>4.49</v>
       </c>
     </row>
@@ -4768,7 +4776,7 @@
       <c r="A399" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -4776,7 +4784,7 @@
       <c r="A400" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="2">
         <v>1.01</v>
       </c>
     </row>
